--- a/Connor's attempt/count.xlsx
+++ b/Connor's attempt/count.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Student Data\Documents\Back Up\Preparing For Career in Mathmatics\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Student Data\Documents\GitHub\TheDistrictCompany\Connor's attempt\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="930" yWindow="0" windowWidth="23040" windowHeight="10260"/>
+    <workbookView xWindow="1860" yWindow="0" windowWidth="23040" windowHeight="10260"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -416,7 +416,7 @@
   <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -434,127 +434,127 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="B2">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="B5">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B7">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="B8">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B12">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B13">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -562,23 +562,23 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="B18">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="B19">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -586,18 +586,18 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B21">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B22">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -609,6 +609,9 @@
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:B23">
+    <sortCondition descending="1" ref="B2:B23"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>